--- a/biology/Médecine/Le_Chœur_des_femmes/Le_Chœur_des_femmes.xlsx
+++ b/biology/Médecine/Le_Chœur_des_femmes/Le_Chœur_des_femmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Ch%C5%93ur_des_femmes</t>
+          <t>Le_Chœur_des_femmes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Chœur des femmes est un roman de Martin Winckler publié en août 2009 aux éditions P.O.L[1],[2]. Décrit par son auteur comme un roman médical[3][source insuffisante], le livre plonge le lecteur dans une unité de médecine dédiée à la médecine des femmes : « avortement, contraception, violences conjugales, maternité des adolescentes, accompagnement des cancers gynécologiques en phase terminale[1][source insuffisante] ».
+Le Chœur des femmes est un roman de Martin Winckler publié en août 2009 aux éditions P.O.L,. Décrit par son auteur comme un roman médical[source insuffisante], le livre plonge le lecteur dans une unité de médecine dédiée à la médecine des femmes : « avortement, contraception, violences conjugales, maternité des adolescentes, accompagnement des cancers gynécologiques en phase terminale[source insuffisante] ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Ch%C5%93ur_des_femmes</t>
+          <t>Le_Chœur_des_femmes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le récit met en scène une jeune interne des hôpitaux en gynécologie, Jean Atwood. Celle-ci doit effectuer un stage dans le service du docteur Franz Karma, unité dédiée à la médecine des femmes. Cette assignation va à l'encontre des envies de l'interne, qui souhaite travailler en chirurgie gynécologique. Alors qu'elle se comporte en médecin froid et méprisant, elle est confontée à une pratique de la médecine respectueuse de la personne auprès du docteur Karma[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le récit met en scène une jeune interne des hôpitaux en gynécologie, Jean Atwood. Celle-ci doit effectuer un stage dans le service du docteur Franz Karma, unité dédiée à la médecine des femmes. Cette assignation va à l'encontre des envies de l'interne, qui souhaite travailler en chirurgie gynécologique. Alors qu'elle se comporte en médecin froid et méprisant, elle est confontée à une pratique de la médecine respectueuse de la personne auprès du docteur Karma.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Ch%C5%93ur_des_femmes</t>
+          <t>Le_Chœur_des_femmes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Éditions françaises et traductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">P.O.L, 2009  (ISBN 978-2-84682-267-1)
 Éditions Gallimard, coll. « Folio » no 5198, 2017  (ISBN 978-2-07-272267-7)
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Ch%C5%93ur_des_femmes</t>
+          <t>Le_Chœur_des_femmes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Adaptation en BD</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le choeur des femmes adaptation, dessin et couleurs par Aude Mermilliod, Le Lombard, avril 2021  (ISBN 978-2-8036-7713-9)</t>
         </is>
